--- a/resource/feuille-equipes-4-joueurs.xlsx
+++ b/resource/feuille-equipes-4-joueurs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHAUVIN ANTOINE\PycharmProjects\GIRPE2.0\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHAUVIN ANTOINE\PycharmProjects\GIRPE2.0\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B6C798-F5CA-480E-B132-493C56511477}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FBC94F-71F4-4B45-8A2F-585500C563F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
   <si>
     <t>FÉDÉRATION FRANÇAISE DE TENNIS DE TABLE</t>
   </si>
@@ -1382,30 +1382,207 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1430,12 +1607,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1471,177 +1642,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8425,8 +8425,8 @@
   </sheetPr>
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8435,58 +8435,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
     </row>
     <row r="2" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="137"/>
+      <c r="U2" s="137"/>
+      <c r="V2" s="137"/>
+      <c r="W2" s="137"/>
     </row>
     <row r="3" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
@@ -8509,61 +8509,61 @@
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
       <c r="T3" s="22"/>
-      <c r="U3" s="79" t="s">
+      <c r="U3" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="81"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="140"/>
       <c r="L4" s="9"/>
       <c r="M4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N4" s="2"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="84"/>
+      <c r="O4" s="141"/>
+      <c r="P4" s="142"/>
+      <c r="Q4" s="142"/>
+      <c r="R4" s="143"/>
       <c r="S4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="85"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="87"/>
+      <c r="T4" s="144"/>
+      <c r="U4" s="131"/>
+      <c r="V4" s="131"/>
+      <c r="W4" s="132"/>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="88"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="90"/>
+      <c r="A5" s="145"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="147"/>
       <c r="L5" s="9"/>
       <c r="M5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="91"/>
-      <c r="O5" s="92"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="149"/>
       <c r="P5" s="1" t="s">
         <v>7</v>
       </c>
@@ -8580,35 +8580,35 @@
       <c r="W5" s="6"/>
     </row>
     <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="93"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="96"/>
+      <c r="A6" s="150"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="152"/>
+      <c r="K6" s="153"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="97" t="s">
+      <c r="M6" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="98"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="97" t="s">
+      <c r="N6" s="155"/>
+      <c r="O6" s="156"/>
+      <c r="P6" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="75" t="s">
+      <c r="Q6" s="155"/>
+      <c r="R6" s="156"/>
+      <c r="S6" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="77"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="130"/>
+      <c r="V6" s="130"/>
+      <c r="W6" s="133"/>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23"/>
@@ -8617,24 +8617,24 @@
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
-      <c r="G7" s="75" t="s">
+      <c r="G7" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="87"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="132"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="75" t="s">
+      <c r="M7" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="76"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="75" t="s">
+      <c r="N7" s="130"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="77"/>
+      <c r="Q7" s="130"/>
+      <c r="R7" s="133"/>
       <c r="S7" s="25"/>
       <c r="T7" s="25"/>
       <c r="U7" s="25"/>
@@ -8654,14 +8654,14 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="106" t="s">
+      <c r="M8" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="106"/>
-      <c r="R8" s="106"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="134"/>
+      <c r="P8" s="134"/>
+      <c r="Q8" s="134"/>
+      <c r="R8" s="134"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
@@ -8697,52 +8697,52 @@
       <c r="A10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="100"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="102" t="s">
+      <c r="B10" s="125"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104" t="s">
+      <c r="E10" s="128"/>
+      <c r="F10" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="105"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="124"/>
       <c r="L10" s="29"/>
       <c r="M10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="100"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="102" t="s">
+      <c r="N10" s="125"/>
+      <c r="O10" s="126"/>
+      <c r="P10" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="70" t="s">
+      <c r="Q10" s="128"/>
+      <c r="R10" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="S10" s="70"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="70"/>
-      <c r="W10" s="71"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="135"/>
+      <c r="V10" s="135"/>
+      <c r="W10" s="136"/>
     </row>
     <row r="11" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="107" t="s">
+      <c r="B11" s="120"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
       <c r="I11" s="30" t="s">
         <v>21</v>
       </c>
@@ -8753,18 +8753,18 @@
         <v>23</v>
       </c>
       <c r="L11" s="33"/>
-      <c r="M11" s="72" t="s">
+      <c r="M11" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="73"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="107" t="s">
+      <c r="N11" s="120"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="73"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="120"/>
+      <c r="T11" s="120"/>
       <c r="U11" s="30" t="s">
         <v>21</v>
       </c>
@@ -8776,133 +8776,133 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="108"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="110"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="104"/>
       <c r="D12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="111" t="s">
+      <c r="E12" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="112"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="106"/>
       <c r="I12" s="54"/>
       <c r="J12" s="55"/>
       <c r="K12" s="56"/>
       <c r="L12" s="34"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="110"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="104"/>
       <c r="P12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="Q12" s="111" t="s">
+      <c r="Q12" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="R12" s="111"/>
-      <c r="S12" s="111"/>
-      <c r="T12" s="112"/>
+      <c r="R12" s="105"/>
+      <c r="S12" s="105"/>
+      <c r="T12" s="106"/>
       <c r="U12" s="54"/>
       <c r="V12" s="55"/>
       <c r="W12" s="56"/>
     </row>
     <row r="13" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="108"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="110"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="104"/>
       <c r="D13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="111" t="s">
+      <c r="E13" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="112"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="106"/>
       <c r="I13" s="54"/>
       <c r="J13" s="55"/>
       <c r="K13" s="56"/>
       <c r="L13" s="34"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="109"/>
-      <c r="O13" s="110"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="104"/>
       <c r="P13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="111" t="s">
+      <c r="Q13" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="R13" s="111"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="112"/>
+      <c r="R13" s="105"/>
+      <c r="S13" s="105"/>
+      <c r="T13" s="106"/>
       <c r="U13" s="54"/>
       <c r="V13" s="55"/>
       <c r="W13" s="56"/>
     </row>
     <row r="14" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="108"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="110"/>
+      <c r="A14" s="102"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="111" t="s">
+      <c r="E14" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="112"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="106"/>
       <c r="I14" s="54"/>
       <c r="J14" s="55"/>
       <c r="K14" s="56"/>
       <c r="L14" s="34"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="110"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="104"/>
       <c r="P14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="Q14" s="111" t="s">
+      <c r="Q14" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="R14" s="111"/>
-      <c r="S14" s="111"/>
-      <c r="T14" s="112"/>
+      <c r="R14" s="105"/>
+      <c r="S14" s="105"/>
+      <c r="T14" s="106"/>
       <c r="U14" s="54"/>
       <c r="V14" s="55"/>
       <c r="W14" s="56"/>
     </row>
     <row r="15" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="114"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="116"/>
+      <c r="A15" s="107"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="109"/>
       <c r="D15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="117" t="s">
+      <c r="E15" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="111"/>
       <c r="I15" s="57"/>
       <c r="J15" s="58"/>
       <c r="K15" s="59"/>
       <c r="L15" s="34"/>
-      <c r="M15" s="114"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="116"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="109"/>
       <c r="P15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="Q15" s="117" t="s">
+      <c r="Q15" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="R15" s="117"/>
-      <c r="S15" s="117"/>
-      <c r="T15" s="118"/>
+      <c r="R15" s="110"/>
+      <c r="S15" s="110"/>
+      <c r="T15" s="111"/>
       <c r="U15" s="57"/>
       <c r="V15" s="58"/>
       <c r="W15" s="59"/>
@@ -8933,35 +8933,35 @@
       <c r="W16" s="9"/>
     </row>
     <row r="17" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="119" t="s">
+      <c r="A17" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="122" t="s">
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="123"/>
-      <c r="S17" s="123"/>
-      <c r="T17" s="123"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="116"/>
+      <c r="Q17" s="116"/>
+      <c r="R17" s="116"/>
+      <c r="S17" s="116"/>
+      <c r="T17" s="116"/>
       <c r="U17" s="36"/>
-      <c r="V17" s="126" t="s">
+      <c r="V17" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="W17" s="127"/>
+      <c r="W17" s="101"/>
     </row>
     <row r="18" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37">
@@ -8979,21 +8979,21 @@
       <c r="E18" s="38">
         <v>5</v>
       </c>
-      <c r="F18" s="124"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="125"/>
-      <c r="R18" s="125"/>
-      <c r="S18" s="125"/>
-      <c r="T18" s="125"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="118"/>
+      <c r="S18" s="118"/>
+      <c r="T18" s="118"/>
       <c r="U18" s="39"/>
       <c r="V18" s="40" t="s">
         <v>35</v>
@@ -9011,30 +9011,30 @@
       <c r="F19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="113" t="str">
+      <c r="G19" s="91" t="str">
         <f>IF(ISBLANK(E12),"",E12)</f>
         <v>{{ club1_j1 }}</v>
       </c>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
       <c r="M19" s="15" t="s">
         <v>37</v>
       </c>
       <c r="N19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="O19" s="113" t="str">
+      <c r="O19" s="91" t="str">
         <f>IF(ISBLANK(Q12),"",Q12)</f>
         <v>{{ club2_j1 }}</v>
       </c>
-      <c r="P19" s="113"/>
-      <c r="Q19" s="113"/>
-      <c r="R19" s="113"/>
-      <c r="S19" s="113"/>
-      <c r="T19" s="113"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="91"/>
+      <c r="R19" s="91"/>
+      <c r="S19" s="91"/>
+      <c r="T19" s="91"/>
       <c r="U19" s="42"/>
       <c r="V19" s="64"/>
       <c r="W19" s="65"/>
@@ -9048,30 +9048,30 @@
       <c r="F20" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="113" t="str">
+      <c r="G20" s="91" t="str">
         <f>IF(ISBLANK(E13),"",E13)</f>
         <v>{{ club1_j2 }}</v>
       </c>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="113"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
       <c r="M20" s="18" t="s">
         <v>38</v>
       </c>
       <c r="N20" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="113" t="str">
+      <c r="O20" s="91" t="str">
         <f>IF(ISBLANK(Q13),"",Q13)</f>
         <v>{{ club2_j2 }}</v>
       </c>
-      <c r="P20" s="113"/>
-      <c r="Q20" s="113"/>
-      <c r="R20" s="113"/>
-      <c r="S20" s="113"/>
-      <c r="T20" s="113"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="91"/>
+      <c r="S20" s="91"/>
+      <c r="T20" s="91"/>
       <c r="U20" s="43"/>
       <c r="V20" s="66"/>
       <c r="W20" s="65"/>
@@ -9085,30 +9085,30 @@
       <c r="F21" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="113" t="str">
+      <c r="G21" s="91" t="str">
         <f>IF(ISBLANK(E14),"",E14)</f>
         <v>{{ club1_j3 }}</v>
       </c>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
       <c r="M21" s="18" t="s">
         <v>38</v>
       </c>
       <c r="N21" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="O21" s="113" t="str">
+      <c r="O21" s="91" t="str">
         <f>IF(ISBLANK(Q14),"",Q14)</f>
         <v>{{ club2_j3 }}</v>
       </c>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="113"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="113"/>
-      <c r="T21" s="113"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="91"/>
+      <c r="S21" s="91"/>
+      <c r="T21" s="91"/>
       <c r="U21" s="43"/>
       <c r="V21" s="66"/>
       <c r="W21" s="65"/>
@@ -9122,30 +9122,30 @@
       <c r="F22" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="113" t="str">
+      <c r="G22" s="91" t="str">
         <f>IF(ISBLANK(E15),"",E15)</f>
         <v>{{ club1_j4 }}</v>
       </c>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="113"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
       <c r="M22" s="18" t="s">
         <v>38</v>
       </c>
       <c r="N22" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O22" s="128" t="str">
+      <c r="O22" s="99" t="str">
         <f>IF(ISBLANK(Q15),"",Q15)</f>
         <v>{{ club2_j4 }}</v>
       </c>
-      <c r="P22" s="128"/>
-      <c r="Q22" s="128"/>
-      <c r="R22" s="128"/>
-      <c r="S22" s="128"/>
-      <c r="T22" s="128"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="99"/>
+      <c r="S22" s="99"/>
+      <c r="T22" s="99"/>
       <c r="U22" s="43"/>
       <c r="V22" s="66"/>
       <c r="W22" s="65"/>
@@ -9159,28 +9159,28 @@
       <c r="F23" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="129" t="str">
+      <c r="G23" s="98" t="str">
         <f>IF(ISBLANK(E12),"",E12)</f>
         <v>{{ club1_j1 }}</v>
       </c>
-      <c r="H23" s="129"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="129"/>
-      <c r="K23" s="129"/>
-      <c r="L23" s="129"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
       <c r="M23" s="18"/>
       <c r="N23" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="O23" s="113" t="str">
+      <c r="O23" s="91" t="str">
         <f>IF(ISBLANK(Q13),"",Q13)</f>
         <v>{{ club2_j2 }}</v>
       </c>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="113"/>
-      <c r="S23" s="113"/>
-      <c r="T23" s="113"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="91"/>
+      <c r="R23" s="91"/>
+      <c r="S23" s="91"/>
+      <c r="T23" s="91"/>
       <c r="U23" s="43"/>
       <c r="V23" s="66"/>
       <c r="W23" s="65"/>
@@ -9194,30 +9194,30 @@
       <c r="F24" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="113" t="str">
+      <c r="G24" s="91" t="str">
         <f>IF(ISBLANK(E13),"",E13)</f>
         <v>{{ club1_j2 }}</v>
       </c>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="113"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
       <c r="M24" s="18" t="s">
         <v>38</v>
       </c>
       <c r="N24" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="O24" s="113" t="str">
+      <c r="O24" s="91" t="str">
         <f>IF(ISBLANK(Q12),"",Q12)</f>
         <v>{{ club2_j1 }}</v>
       </c>
-      <c r="P24" s="113"/>
-      <c r="Q24" s="113"/>
-      <c r="R24" s="113"/>
-      <c r="S24" s="113"/>
-      <c r="T24" s="113"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="91"/>
+      <c r="R24" s="91"/>
+      <c r="S24" s="91"/>
+      <c r="T24" s="91"/>
       <c r="U24" s="43"/>
       <c r="V24" s="66"/>
       <c r="W24" s="65"/>
@@ -9231,30 +9231,30 @@
       <c r="F25" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="113" t="str">
+      <c r="G25" s="91" t="str">
         <f>IF(ISBLANK(E15),"",E15)</f>
         <v>{{ club1_j4 }}</v>
       </c>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="113"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
       <c r="M25" s="18" t="s">
         <v>38</v>
       </c>
       <c r="N25" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="O25" s="113" t="str">
+      <c r="O25" s="91" t="str">
         <f>IF(ISBLANK(Q14),"",Q14)</f>
         <v>{{ club2_j3 }}</v>
       </c>
-      <c r="P25" s="113"/>
-      <c r="Q25" s="113"/>
-      <c r="R25" s="113"/>
-      <c r="S25" s="113"/>
-      <c r="T25" s="113"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="91"/>
+      <c r="S25" s="91"/>
+      <c r="T25" s="91"/>
       <c r="U25" s="43"/>
       <c r="V25" s="66"/>
       <c r="W25" s="65"/>
@@ -9268,30 +9268,30 @@
       <c r="F26" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="129" t="str">
+      <c r="G26" s="98" t="str">
         <f>IF(ISBLANK(E14),"",E14)</f>
         <v>{{ club1_j3 }}</v>
       </c>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="129"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
       <c r="M26" s="18" t="s">
         <v>38</v>
       </c>
       <c r="N26" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O26" s="113" t="str">
+      <c r="O26" s="91" t="str">
         <f>IF(ISBLANK(Q15),"",Q15)</f>
         <v>{{ club2_j4 }}</v>
       </c>
-      <c r="P26" s="113"/>
-      <c r="Q26" s="113"/>
-      <c r="R26" s="113"/>
-      <c r="S26" s="113"/>
-      <c r="T26" s="113"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="91"/>
+      <c r="S26" s="91"/>
+      <c r="T26" s="91"/>
       <c r="U26" s="43"/>
       <c r="V26" s="66"/>
       <c r="W26" s="65"/>
@@ -9305,24 +9305,24 @@
       <c r="F27" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="130"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="130"/>
-      <c r="K27" s="130"/>
-      <c r="L27" s="130"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="97"/>
       <c r="M27" s="18" t="s">
         <v>38</v>
       </c>
       <c r="N27" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="O27" s="130"/>
-      <c r="P27" s="130"/>
-      <c r="Q27" s="130"/>
-      <c r="R27" s="130"/>
-      <c r="S27" s="130"/>
-      <c r="T27" s="130"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="97"/>
+      <c r="T27" s="97"/>
       <c r="U27" s="43"/>
       <c r="V27" s="66"/>
       <c r="W27" s="65"/>
@@ -9336,24 +9336,24 @@
       <c r="F28" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="130"/>
-      <c r="K28" s="130"/>
-      <c r="L28" s="130"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="97"/>
       <c r="M28" s="18" t="s">
         <v>38</v>
       </c>
       <c r="N28" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="O28" s="130"/>
-      <c r="P28" s="130"/>
-      <c r="Q28" s="130"/>
-      <c r="R28" s="130"/>
-      <c r="S28" s="130"/>
-      <c r="T28" s="130"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="97"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="97"/>
+      <c r="S28" s="97"/>
+      <c r="T28" s="97"/>
       <c r="U28" s="43"/>
       <c r="V28" s="66"/>
       <c r="W28" s="65"/>
@@ -9367,30 +9367,30 @@
       <c r="F29" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="113" t="str">
+      <c r="G29" s="91" t="str">
         <f>IF(ISBLANK(E12),"",E12)</f>
         <v>{{ club1_j1 }}</v>
       </c>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="113"/>
-      <c r="L29" s="113"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
       <c r="M29" s="18" t="s">
         <v>38</v>
       </c>
       <c r="N29" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="O29" s="113" t="str">
+      <c r="O29" s="91" t="str">
         <f>IF(ISBLANK(Q14),"",Q14)</f>
         <v>{{ club2_j3 }}</v>
       </c>
-      <c r="P29" s="113"/>
-      <c r="Q29" s="113"/>
-      <c r="R29" s="113"/>
-      <c r="S29" s="113"/>
-      <c r="T29" s="113"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="91"/>
+      <c r="S29" s="91"/>
+      <c r="T29" s="91"/>
       <c r="U29" s="43"/>
       <c r="V29" s="66"/>
       <c r="W29" s="65"/>
@@ -9404,30 +9404,30 @@
       <c r="F30" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="113" t="str">
+      <c r="G30" s="91" t="str">
         <f>IF(ISBLANK(E14),"",E14)</f>
         <v>{{ club1_j3 }}</v>
       </c>
-      <c r="H30" s="113"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="113"/>
-      <c r="L30" s="113"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
       <c r="M30" s="18" t="s">
         <v>38</v>
       </c>
       <c r="N30" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="O30" s="113" t="str">
+      <c r="O30" s="91" t="str">
         <f>IF(ISBLANK(Q12),"",Q12)</f>
         <v>{{ club2_j1 }}</v>
       </c>
-      <c r="P30" s="113"/>
-      <c r="Q30" s="113"/>
-      <c r="R30" s="113"/>
-      <c r="S30" s="113"/>
-      <c r="T30" s="113"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="91"/>
+      <c r="S30" s="91"/>
+      <c r="T30" s="91"/>
       <c r="U30" s="43"/>
       <c r="V30" s="66"/>
       <c r="W30" s="65"/>
@@ -9441,30 +9441,30 @@
       <c r="F31" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="131" t="str">
+      <c r="G31" s="90" t="str">
         <f>IF(ISBLANK(E15),"",E15)</f>
         <v>{{ club1_j4 }}</v>
       </c>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="131"/>
-      <c r="K31" s="131"/>
-      <c r="L31" s="131"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90"/>
       <c r="M31" s="18" t="s">
         <v>38</v>
       </c>
       <c r="N31" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="O31" s="113" t="str">
+      <c r="O31" s="91" t="str">
         <f>IF(ISBLANK(Q13),"",Q13)</f>
         <v>{{ club2_j2 }}</v>
       </c>
-      <c r="P31" s="113"/>
-      <c r="Q31" s="113"/>
-      <c r="R31" s="113"/>
-      <c r="S31" s="113"/>
-      <c r="T31" s="113"/>
+      <c r="P31" s="91"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="91"/>
+      <c r="S31" s="91"/>
+      <c r="T31" s="91"/>
       <c r="U31" s="43"/>
       <c r="V31" s="66"/>
       <c r="W31" s="65"/>
@@ -9478,58 +9478,58 @@
       <c r="F32" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="113" t="str">
+      <c r="G32" s="91" t="str">
         <f>IF(ISBLANK(E13),"",E13)</f>
         <v>{{ club1_j2 }}</v>
       </c>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="113"/>
-      <c r="L32" s="113"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="91"/>
       <c r="M32" s="18" t="s">
         <v>38</v>
       </c>
       <c r="N32" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O32" s="113" t="str">
+      <c r="O32" s="91" t="str">
         <f>IF(ISBLANK(Q15),"",Q15)</f>
         <v>{{ club2_j4 }}</v>
       </c>
-      <c r="P32" s="113"/>
-      <c r="Q32" s="113"/>
-      <c r="R32" s="113"/>
-      <c r="S32" s="113"/>
-      <c r="T32" s="113"/>
+      <c r="P32" s="91"/>
+      <c r="Q32" s="91"/>
+      <c r="R32" s="91"/>
+      <c r="S32" s="91"/>
+      <c r="T32" s="91"/>
       <c r="U32" s="43"/>
       <c r="V32" s="66"/>
       <c r="W32" s="65"/>
     </row>
     <row r="33" spans="1:23" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="132"/>
-      <c r="B33" s="133"/>
-      <c r="C33" s="133"/>
-      <c r="D33" s="133"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="135" t="s">
+      <c r="A33" s="92"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="135"/>
-      <c r="H33" s="135"/>
-      <c r="I33" s="135"/>
-      <c r="J33" s="135"/>
-      <c r="K33" s="135"/>
-      <c r="L33" s="135"/>
-      <c r="M33" s="135"/>
-      <c r="N33" s="135"/>
-      <c r="O33" s="135"/>
-      <c r="P33" s="135"/>
-      <c r="Q33" s="135"/>
-      <c r="R33" s="135"/>
-      <c r="S33" s="135"/>
-      <c r="T33" s="135"/>
-      <c r="U33" s="136"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="96"/>
       <c r="V33" s="44" t="str">
         <f>IF(ISBLANK(V19),"",SUM(V19:V32))</f>
         <v/>
@@ -9570,26 +9570,28 @@
         <v>42</v>
       </c>
       <c r="C35" s="9"/>
-      <c r="D35" s="137" t="s">
+      <c r="D35" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="138"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="137" t="s">
+      <c r="E35" s="86"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="H35" s="138"/>
-      <c r="I35" s="139"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="87"/>
       <c r="J35" s="47" t="s">
         <v>45</v>
       </c>
       <c r="K35" s="48"/>
-      <c r="L35" s="140"/>
-      <c r="M35" s="140"/>
-      <c r="N35" s="140"/>
-      <c r="O35" s="140"/>
-      <c r="P35" s="141"/>
-      <c r="Q35" s="144"/>
+      <c r="L35" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="76"/>
       <c r="R35" s="9"/>
       <c r="S35" s="9" t="s">
         <v>46</v>
@@ -9612,29 +9614,29 @@
       <c r="D36" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="146"/>
-      <c r="F36" s="147"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="89"/>
       <c r="G36" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H36" s="146"/>
-      <c r="I36" s="147"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="89"/>
       <c r="J36" s="10"/>
       <c r="K36" s="51"/>
-      <c r="L36" s="142"/>
-      <c r="M36" s="142"/>
-      <c r="N36" s="142"/>
-      <c r="O36" s="142"/>
-      <c r="P36" s="143"/>
-      <c r="Q36" s="145"/>
+      <c r="L36" s="83"/>
+      <c r="M36" s="83"/>
+      <c r="N36" s="83"/>
+      <c r="O36" s="83"/>
+      <c r="P36" s="84"/>
+      <c r="Q36" s="77"/>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
       <c r="U36" s="49"/>
-      <c r="V36" s="148" t="s">
+      <c r="V36" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="W36" s="148" t="s">
+      <c r="W36" s="70" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9644,28 +9646,30 @@
         <v>23</v>
       </c>
       <c r="C37" s="9"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="153"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="152"/>
-      <c r="I37" s="153"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="75"/>
       <c r="J37" s="47" t="s">
         <v>45</v>
       </c>
       <c r="K37" s="48"/>
-      <c r="L37" s="140"/>
-      <c r="M37" s="140"/>
-      <c r="N37" s="140"/>
-      <c r="O37" s="140"/>
-      <c r="P37" s="141"/>
-      <c r="Q37" s="144"/>
+      <c r="L37" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="M37" s="81"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="76"/>
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
       <c r="U37" s="49"/>
-      <c r="V37" s="149"/>
-      <c r="W37" s="149"/>
+      <c r="V37" s="71"/>
+      <c r="W37" s="71"/>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="67"/>
@@ -9673,76 +9677,68 @@
         <v>51</v>
       </c>
       <c r="C38" s="9"/>
-      <c r="D38" s="154" t="s">
+      <c r="D38" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="155"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="154" t="s">
+      <c r="E38" s="79"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="H38" s="155"/>
-      <c r="I38" s="156"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="80"/>
       <c r="J38" s="52"/>
       <c r="K38" s="53"/>
-      <c r="L38" s="142"/>
-      <c r="M38" s="142"/>
-      <c r="N38" s="142"/>
-      <c r="O38" s="142"/>
-      <c r="P38" s="143"/>
-      <c r="Q38" s="145"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="83"/>
+      <c r="N38" s="83"/>
+      <c r="O38" s="83"/>
+      <c r="P38" s="84"/>
+      <c r="Q38" s="77"/>
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
       <c r="U38" s="49"/>
-      <c r="V38" s="150"/>
-      <c r="W38" s="150"/>
+      <c r="V38" s="72"/>
+      <c r="W38" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="V36:V38"/>
-    <mergeCell ref="W36:W38"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="L37:P38"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="L35:P36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="O31:T31"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="O32:T32"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="F33:U33"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="O28:T28"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="O29:T29"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="O30:T30"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="O26:T26"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="O27:T27"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="O22:T22"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="O23:T23"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="O24:T24"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="O20:T20"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="A11:C11"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="M14:O14"/>
@@ -9755,41 +9751,49 @@
     <mergeCell ref="Q15:T15"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="F17:T18"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="O20:T20"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="O22:T22"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="O23:T23"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="O24:T24"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="O26:T26"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="O27:T27"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="O28:T28"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="O29:T29"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="O30:T30"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="O31:T31"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="O32:T32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="F33:U33"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="L35:P36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="V36:V38"/>
+    <mergeCell ref="W36:W38"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="L37:P38"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.23622047244094491" footer="0.23622047244094491"/>
